--- a/config_2.9/rank_server.xlsx
+++ b/config_2.9/rank_server.xlsx
@@ -1236,25 +1236,25 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>集字榜单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_1</t>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_2</t>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_3</t>
+  </si>
+  <si>
+    <t>gdn_004_jzbd_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>cjs_003_bzphb_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>gdn_004_jzbd_rank</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>集字榜单</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_1</t>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_2</t>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_3</t>
   </si>
 </sst>
 </file>
@@ -1794,9 +1794,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2862,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>268</v>
@@ -2897,10 +2897,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E31" s="28">
         <v>1612828800</v>
@@ -4553,7 +4553,7 @@
         <v>253</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E45" s="31">
         <v>2</v>
@@ -4570,7 +4570,7 @@
         <v>253</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E46" s="31">
         <v>2</v>
@@ -4587,7 +4587,7 @@
         <v>253</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E47" s="31">
         <v>2</v>

--- a/config_2.9/rank_server.xlsx
+++ b/config_2.9/rank_server.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="287">
   <si>
     <t>id|</t>
   </si>
@@ -1240,15 +1240,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>prop_fish_drop_act_1</t>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_2</t>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_3</t>
-  </si>
-  <si>
     <t>gdn_004_jzbd_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1302,6 +1293,18 @@
   </si>
   <si>
     <t>xxlzb_004_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ycs_005_jybb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1846,11 +1849,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2916,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>268</v>
@@ -2943,7 +2946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28">
         <v>30</v>
       </c>
@@ -2951,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>269</v>
@@ -2978,39 +2981,74 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45">
+    <row r="32" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="28">
         <v>31</v>
       </c>
-      <c r="B32" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>286</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>275</v>
-      </c>
-      <c r="E32" s="45">
+      <c r="B32" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="E32" s="28">
         <v>1612828800</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="28">
         <v>1613404799</v>
       </c>
-      <c r="G32" s="45" t="s">
+      <c r="G32" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="45" t="s">
+      <c r="H32" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="45">
+      <c r="I32" s="28">
         <v>31</v>
       </c>
-      <c r="K32" s="45">
+      <c r="K32" s="28">
         <v>31</v>
       </c>
-      <c r="L32" s="45">
+      <c r="L32" s="28">
         <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="45">
+        <v>32</v>
+      </c>
+      <c r="B33" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="45">
+        <v>1613433600</v>
+      </c>
+      <c r="F33" s="45">
+        <v>1614009599</v>
+      </c>
+      <c r="G33" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="45">
+        <v>32</v>
+      </c>
+      <c r="K33" s="45">
+        <v>32</v>
+      </c>
+      <c r="L33" s="45">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3022,11 +3060,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3863,13 +3901,13 @@
       <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="23">
+      <c r="B61" s="31">
         <v>31</v>
       </c>
-      <c r="C61" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="D61" s="23">
+      <c r="C61" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="D61" s="31">
         <v>32</v>
       </c>
     </row>
@@ -3877,13 +3915,13 @@
       <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="23">
+      <c r="B62" s="31">
         <v>31</v>
       </c>
-      <c r="C62" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="D62" s="23">
+      <c r="C62" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="D62" s="31">
         <v>33</v>
       </c>
     </row>
@@ -3891,13 +3929,13 @@
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="23">
+      <c r="B63" s="31">
         <v>31</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D63" s="31">
         <v>34</v>
       </c>
     </row>
@@ -3905,21 +3943,43 @@
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="23">
+      <c r="B64" s="31">
         <v>31</v>
       </c>
-      <c r="C64" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="D64" s="23">
+      <c r="C64" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="D64" s="31">
         <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="5"/>
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="23">
+        <v>32</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" s="23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="23">
+        <v>32</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="D66" s="23">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3930,10 +3990,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4643,7 +4703,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="5">
@@ -4698,16 +4758,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="31">
-        <v>31</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="D45" s="33" t="s">
-        <v>270</v>
+        <v>32</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="D45" s="31">
+        <v>240000</v>
       </c>
       <c r="E45" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -4715,16 +4775,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="31">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>271</v>
+        <v>79</v>
+      </c>
+      <c r="D46" s="31">
+        <v>500</v>
       </c>
       <c r="E46" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -4732,32 +4792,32 @@
         <v>46</v>
       </c>
       <c r="B47" s="31">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>272</v>
+        <v>77</v>
+      </c>
+      <c r="D47" s="31">
+        <v>240000</v>
       </c>
       <c r="E47" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="23">
-        <v>32</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="D48" s="23">
-        <v>240000</v>
-      </c>
-      <c r="E48" s="23">
+      <c r="B48" s="31">
+        <v>33</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="31">
+        <v>500</v>
+      </c>
+      <c r="E48" s="31">
         <v>3</v>
       </c>
     </row>
@@ -4765,16 +4825,16 @@
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="23">
-        <v>32</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="23">
-        <v>500</v>
-      </c>
-      <c r="E49" s="23">
+      <c r="B49" s="31">
+        <v>34</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="31">
+        <v>240000</v>
+      </c>
+      <c r="E49" s="31">
         <v>3</v>
       </c>
     </row>
@@ -4782,16 +4842,16 @@
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="23">
-        <v>33</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="23">
-        <v>240000</v>
-      </c>
-      <c r="E50" s="23">
+      <c r="B50" s="31">
+        <v>34</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="31">
+        <v>500</v>
+      </c>
+      <c r="E50" s="31">
         <v>3</v>
       </c>
     </row>
@@ -4799,16 +4859,16 @@
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="23">
-        <v>33</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="23">
-        <v>500</v>
-      </c>
-      <c r="E51" s="23">
+      <c r="B51" s="31">
+        <v>35</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="31">
+        <v>240000</v>
+      </c>
+      <c r="E51" s="31">
         <v>3</v>
       </c>
     </row>
@@ -4816,16 +4876,16 @@
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="23">
-        <v>34</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="23">
-        <v>240000</v>
-      </c>
-      <c r="E52" s="23">
+      <c r="B52" s="31">
+        <v>35</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="31">
+        <v>500</v>
+      </c>
+      <c r="E52" s="31">
         <v>3</v>
       </c>
     </row>
@@ -4834,16 +4894,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="23">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="D53" s="23">
-        <v>500</v>
+        <v>9</v>
       </c>
       <c r="E53" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -4851,38 +4911,43 @@
         <v>53</v>
       </c>
       <c r="B54" s="23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="23">
-        <v>240000</v>
+        <v>253</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>286</v>
       </c>
       <c r="E54" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>54</v>
-      </c>
-      <c r="B55" s="23">
-        <v>35</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="23">
-        <v>500</v>
-      </c>
-      <c r="E55" s="23">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4986,11 +5051,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" activeCellId="1" sqref="A33:G33 D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5718,26 +5783,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="23">
+    <row r="32" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="31">
         <v>31</v>
       </c>
-      <c r="B32" s="23">
-        <v>1</v>
-      </c>
-      <c r="C32" s="23">
+      <c r="B32" s="31">
+        <v>1</v>
+      </c>
+      <c r="C32" s="31">
         <v>20</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="31">
         <v>100</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="31">
         <v>20</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="31">
         <v>180</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="23">
+        <v>32</v>
+      </c>
+      <c r="B33" s="23">
+        <v>1</v>
+      </c>
+      <c r="C33" s="23">
+        <v>20</v>
+      </c>
+      <c r="D33" s="23">
+        <v>100</v>
+      </c>
+      <c r="E33" s="23">
+        <v>20</v>
+      </c>
+      <c r="F33" s="23">
+        <v>180</v>
+      </c>
+      <c r="G33" s="23">
         <v>10</v>
       </c>
     </row>
@@ -5749,11 +5837,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6169,17 +6257,31 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="23">
+      <c r="A30" s="31">
         <v>29</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="31">
         <v>33</v>
       </c>
-      <c r="C30" s="23">
-        <v>1</v>
-      </c>
-      <c r="D30" s="23">
+      <c r="C30" s="31">
+        <v>1</v>
+      </c>
+      <c r="D30" s="31">
         <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="23">
+        <v>30</v>
+      </c>
+      <c r="B31" s="23">
+        <v>34</v>
+      </c>
+      <c r="C31" s="23">
+        <v>1</v>
+      </c>
+      <c r="D31" s="23">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6191,11 +6293,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6596,14 +6698,25 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="23">
+      <c r="A34" s="31">
         <v>33</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="31">
         <v>1613404799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="23">
+        <v>34</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="45">
+        <v>1614009599</v>
       </c>
     </row>
   </sheetData>
@@ -6614,11 +6727,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:I206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G202" sqref="G202"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G200" sqref="G200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10898,21 +11011,21 @@
       <c r="A193" s="5">
         <v>192</v>
       </c>
-      <c r="B193" s="23">
+      <c r="B193" s="31">
         <v>29</v>
       </c>
-      <c r="C193" s="23">
-        <v>1</v>
-      </c>
-      <c r="D193" s="23">
-        <v>1</v>
-      </c>
-      <c r="E193" s="23"/>
-      <c r="F193" s="23"/>
-      <c r="G193" s="23">
+      <c r="C193" s="31">
+        <v>1</v>
+      </c>
+      <c r="D193" s="31">
+        <v>1</v>
+      </c>
+      <c r="E193" s="31"/>
+      <c r="F193" s="31"/>
+      <c r="G193" s="31">
         <v>177</v>
       </c>
-      <c r="H193" s="25" t="s">
+      <c r="H193" s="32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10920,21 +11033,21 @@
       <c r="A194" s="5">
         <v>193</v>
       </c>
-      <c r="B194" s="23">
+      <c r="B194" s="31">
         <v>29</v>
       </c>
-      <c r="C194" s="23">
+      <c r="C194" s="31">
         <v>2</v>
       </c>
-      <c r="D194" s="23">
+      <c r="D194" s="31">
         <v>2</v>
       </c>
-      <c r="E194" s="23"/>
-      <c r="F194" s="23"/>
-      <c r="G194" s="23">
+      <c r="E194" s="31"/>
+      <c r="F194" s="31"/>
+      <c r="G194" s="31">
         <v>178</v>
       </c>
-      <c r="H194" s="25" t="s">
+      <c r="H194" s="32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10942,21 +11055,21 @@
       <c r="A195" s="5">
         <v>194</v>
       </c>
-      <c r="B195" s="23">
+      <c r="B195" s="31">
         <v>29</v>
       </c>
-      <c r="C195" s="23">
+      <c r="C195" s="31">
         <v>3</v>
       </c>
-      <c r="D195" s="23">
+      <c r="D195" s="31">
         <v>3</v>
       </c>
-      <c r="E195" s="23"/>
-      <c r="F195" s="23"/>
-      <c r="G195" s="23">
+      <c r="E195" s="31"/>
+      <c r="F195" s="31"/>
+      <c r="G195" s="31">
         <v>179</v>
       </c>
-      <c r="H195" s="25" t="s">
+      <c r="H195" s="32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10964,21 +11077,21 @@
       <c r="A196" s="5">
         <v>195</v>
       </c>
-      <c r="B196" s="23">
+      <c r="B196" s="31">
         <v>29</v>
       </c>
-      <c r="C196" s="23">
+      <c r="C196" s="31">
         <v>4</v>
       </c>
-      <c r="D196" s="23">
+      <c r="D196" s="31">
         <v>6</v>
       </c>
-      <c r="E196" s="23"/>
-      <c r="F196" s="23"/>
-      <c r="G196" s="23">
+      <c r="E196" s="31"/>
+      <c r="F196" s="31"/>
+      <c r="G196" s="31">
         <v>180</v>
       </c>
-      <c r="H196" s="25" t="s">
+      <c r="H196" s="32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10986,21 +11099,21 @@
       <c r="A197" s="5">
         <v>196</v>
       </c>
-      <c r="B197" s="23">
+      <c r="B197" s="31">
         <v>29</v>
       </c>
-      <c r="C197" s="23">
+      <c r="C197" s="31">
         <v>7</v>
       </c>
-      <c r="D197" s="23">
+      <c r="D197" s="31">
         <v>10</v>
       </c>
-      <c r="E197" s="23"/>
-      <c r="F197" s="23"/>
-      <c r="G197" s="23">
+      <c r="E197" s="31"/>
+      <c r="F197" s="31"/>
+      <c r="G197" s="31">
         <v>181</v>
       </c>
-      <c r="H197" s="25" t="s">
+      <c r="H197" s="32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11008,21 +11121,21 @@
       <c r="A198" s="5">
         <v>197</v>
       </c>
-      <c r="B198" s="23">
+      <c r="B198" s="31">
         <v>29</v>
       </c>
-      <c r="C198" s="23">
+      <c r="C198" s="31">
         <v>11</v>
       </c>
-      <c r="D198" s="23">
+      <c r="D198" s="31">
         <v>15</v>
       </c>
-      <c r="E198" s="23"/>
-      <c r="F198" s="23"/>
-      <c r="G198" s="23">
+      <c r="E198" s="31"/>
+      <c r="F198" s="31"/>
+      <c r="G198" s="31">
         <v>182</v>
       </c>
-      <c r="H198" s="25" t="s">
+      <c r="H198" s="32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11030,21 +11143,175 @@
       <c r="A199" s="5">
         <v>198</v>
       </c>
-      <c r="B199" s="23">
+      <c r="B199" s="31">
         <v>29</v>
       </c>
-      <c r="C199" s="23">
+      <c r="C199" s="31">
         <v>16</v>
       </c>
-      <c r="D199" s="23">
+      <c r="D199" s="31">
         <v>20</v>
       </c>
-      <c r="E199" s="23"/>
-      <c r="F199" s="23"/>
-      <c r="G199" s="23">
+      <c r="E199" s="31"/>
+      <c r="F199" s="31"/>
+      <c r="G199" s="31">
         <v>183</v>
       </c>
-      <c r="H199" s="25" t="s">
+      <c r="H199" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="5">
+        <v>199</v>
+      </c>
+      <c r="B200" s="23">
+        <v>30</v>
+      </c>
+      <c r="C200" s="23">
+        <v>1</v>
+      </c>
+      <c r="D200" s="23">
+        <v>1</v>
+      </c>
+      <c r="E200" s="23"/>
+      <c r="F200" s="23"/>
+      <c r="G200" s="23">
+        <v>184</v>
+      </c>
+      <c r="H200" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="5">
+        <v>200</v>
+      </c>
+      <c r="B201" s="23">
+        <v>30</v>
+      </c>
+      <c r="C201" s="23">
+        <v>2</v>
+      </c>
+      <c r="D201" s="23">
+        <v>2</v>
+      </c>
+      <c r="E201" s="23"/>
+      <c r="F201" s="23"/>
+      <c r="G201" s="23">
+        <v>185</v>
+      </c>
+      <c r="H201" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="5">
+        <v>201</v>
+      </c>
+      <c r="B202" s="23">
+        <v>30</v>
+      </c>
+      <c r="C202" s="23">
+        <v>3</v>
+      </c>
+      <c r="D202" s="23">
+        <v>3</v>
+      </c>
+      <c r="E202" s="23"/>
+      <c r="F202" s="23"/>
+      <c r="G202" s="23">
+        <v>186</v>
+      </c>
+      <c r="H202" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="5">
+        <v>202</v>
+      </c>
+      <c r="B203" s="23">
+        <v>30</v>
+      </c>
+      <c r="C203" s="23">
+        <v>4</v>
+      </c>
+      <c r="D203" s="23">
+        <v>6</v>
+      </c>
+      <c r="E203" s="23"/>
+      <c r="F203" s="23"/>
+      <c r="G203" s="23">
+        <v>187</v>
+      </c>
+      <c r="H203" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="5">
+        <v>203</v>
+      </c>
+      <c r="B204" s="23">
+        <v>30</v>
+      </c>
+      <c r="C204" s="23">
+        <v>7</v>
+      </c>
+      <c r="D204" s="23">
+        <v>10</v>
+      </c>
+      <c r="E204" s="23"/>
+      <c r="F204" s="23"/>
+      <c r="G204" s="23">
+        <v>188</v>
+      </c>
+      <c r="H204" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="5">
+        <v>204</v>
+      </c>
+      <c r="B205" s="23">
+        <v>30</v>
+      </c>
+      <c r="C205" s="23">
+        <v>11</v>
+      </c>
+      <c r="D205" s="23">
+        <v>15</v>
+      </c>
+      <c r="E205" s="23"/>
+      <c r="F205" s="23"/>
+      <c r="G205" s="23">
+        <v>189</v>
+      </c>
+      <c r="H205" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="5">
+        <v>205</v>
+      </c>
+      <c r="B206" s="23">
+        <v>30</v>
+      </c>
+      <c r="C206" s="23">
+        <v>16</v>
+      </c>
+      <c r="D206" s="23">
+        <v>20</v>
+      </c>
+      <c r="E206" s="23"/>
+      <c r="F206" s="23"/>
+      <c r="G206" s="23">
+        <v>190</v>
+      </c>
+      <c r="H206" s="25" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11057,11 +11324,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G188"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F185" sqref="F185"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14680,142 +14947,282 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="23">
+      <c r="A182" s="31">
         <v>181</v>
       </c>
-      <c r="B182" s="23">
+      <c r="B182" s="31">
         <v>177</v>
       </c>
-      <c r="C182" s="24" t="s">
+      <c r="C182" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="D182" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E182" s="31">
+        <v>50000</v>
+      </c>
+      <c r="F182" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="31">
+        <v>182</v>
+      </c>
+      <c r="B183" s="31">
+        <v>178</v>
+      </c>
+      <c r="C183" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="D183" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E183" s="31">
+        <v>15000</v>
+      </c>
+      <c r="F183" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="31">
+        <v>183</v>
+      </c>
+      <c r="B184" s="31">
+        <v>179</v>
+      </c>
+      <c r="C184" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="D184" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E184" s="31">
+        <v>5000</v>
+      </c>
+      <c r="F184" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="31">
+        <v>184</v>
+      </c>
+      <c r="B185" s="31">
+        <v>180</v>
+      </c>
+      <c r="C185" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="D182" s="24" t="s">
+      <c r="D185" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="E182" s="23">
-        <v>50000</v>
-      </c>
-      <c r="F182" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="23">
+      <c r="E185" s="31">
+        <v>1500</v>
+      </c>
+      <c r="F185" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="31">
+        <v>185</v>
+      </c>
+      <c r="B186" s="31">
+        <v>181</v>
+      </c>
+      <c r="C186" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D186" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E186" s="31">
+        <v>1000</v>
+      </c>
+      <c r="F186" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="31">
+        <v>186</v>
+      </c>
+      <c r="B187" s="31">
         <v>182</v>
       </c>
-      <c r="B183" s="23">
-        <v>178</v>
-      </c>
-      <c r="C183" s="24" t="s">
+      <c r="C187" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="D183" s="24" t="s">
+      <c r="D187" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="E183" s="23">
-        <v>15000</v>
-      </c>
-      <c r="F183" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="23">
+      <c r="E187" s="31">
+        <v>500</v>
+      </c>
+      <c r="F187" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="31">
+        <v>187</v>
+      </c>
+      <c r="B188" s="31">
         <v>183</v>
       </c>
-      <c r="B184" s="23">
-        <v>179</v>
-      </c>
-      <c r="C184" s="24" t="s">
+      <c r="C188" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="D184" s="24" t="s">
+      <c r="D188" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="E184" s="23">
-        <v>5000</v>
-      </c>
-      <c r="F184" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="23">
+      <c r="E188" s="31">
+        <v>240</v>
+      </c>
+      <c r="F188" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="23">
+        <v>188</v>
+      </c>
+      <c r="B189" s="23">
         <v>184</v>
       </c>
-      <c r="B185" s="23">
-        <v>180</v>
-      </c>
-      <c r="C185" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="D185" s="24" t="s">
+      <c r="C189" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D189" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="E185" s="23">
-        <v>1500</v>
-      </c>
-      <c r="F185" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="23">
+      <c r="E189" s="23">
+        <v>100000</v>
+      </c>
+      <c r="F189" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="23">
+        <v>189</v>
+      </c>
+      <c r="B190" s="23">
         <v>185</v>
       </c>
-      <c r="B186" s="23">
-        <v>181</v>
-      </c>
-      <c r="C186" s="24" t="s">
+      <c r="C190" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D190" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E190" s="23">
+        <v>30000</v>
+      </c>
+      <c r="F190" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="23">
+        <v>190</v>
+      </c>
+      <c r="B191" s="23">
+        <v>186</v>
+      </c>
+      <c r="C191" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D191" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E191" s="23">
+        <v>10000</v>
+      </c>
+      <c r="F191" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="23">
+        <v>191</v>
+      </c>
+      <c r="B192" s="23">
+        <v>187</v>
+      </c>
+      <c r="C192" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="D192" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E192" s="23">
+        <v>3000</v>
+      </c>
+      <c r="F192" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="23">
+        <v>192</v>
+      </c>
+      <c r="B193" s="23">
+        <v>188</v>
+      </c>
+      <c r="C193" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="D193" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E193" s="23">
+        <v>2000</v>
+      </c>
+      <c r="F193" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="23">
+        <v>193</v>
+      </c>
+      <c r="B194" s="23">
+        <v>189</v>
+      </c>
+      <c r="C194" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="D186" s="24" t="s">
+      <c r="D194" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="E186" s="23">
+      <c r="E194" s="23">
         <v>1000</v>
       </c>
-      <c r="F186" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="23">
-        <v>186</v>
-      </c>
-      <c r="B187" s="23">
-        <v>182</v>
-      </c>
-      <c r="C187" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="D187" s="24" t="s">
+      <c r="F194" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="23">
+        <v>194</v>
+      </c>
+      <c r="B195" s="23">
+        <v>190</v>
+      </c>
+      <c r="C195" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D195" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="E187" s="23">
+      <c r="E195" s="23">
         <v>500</v>
       </c>
-      <c r="F187" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="23">
-        <v>187</v>
-      </c>
-      <c r="B188" s="23">
-        <v>183</v>
-      </c>
-      <c r="C188" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="D188" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="E188" s="23">
-        <v>240</v>
-      </c>
-      <c r="F188" s="23">
+      <c r="F195" s="23">
         <v>1</v>
       </c>
     </row>

--- a/config_2.9/rank_server.xlsx
+++ b/config_2.9/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="287">
   <si>
     <t>id|</t>
   </si>
@@ -1254,6 +1254,54 @@
   </si>
   <si>
     <t>cjs_003_bzphb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐争霸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_award_rate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_shuihu_award_rate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou_award_rate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bet_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>500福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>240福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxlzb_004_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1396,7 +1444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1514,6 +1562,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1792,11 +1846,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2924,6 +2978,41 @@
         <v>28</v>
       </c>
     </row>
+    <row r="32" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="45">
+        <v>31</v>
+      </c>
+      <c r="B32" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="E32" s="45">
+        <v>1612828800</v>
+      </c>
+      <c r="F32" s="45">
+        <v>1613404799</v>
+      </c>
+      <c r="G32" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="45">
+        <v>31</v>
+      </c>
+      <c r="K32" s="45">
+        <v>31</v>
+      </c>
+      <c r="L32" s="45">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2933,11 +3022,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3770,6 +3859,68 @@
         <v>31</v>
       </c>
     </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="23">
+        <v>31</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="D61" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="23">
+        <v>31</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="D62" s="23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="23">
+        <v>31</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="23">
+        <v>31</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="D64" s="23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3779,10 +3930,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4591,6 +4742,142 @@
       </c>
       <c r="E47" s="31">
         <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="23">
+        <v>32</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="D48" s="23">
+        <v>240000</v>
+      </c>
+      <c r="E48" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="23">
+        <v>32</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="23">
+        <v>500</v>
+      </c>
+      <c r="E49" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="23">
+        <v>33</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="23">
+        <v>240000</v>
+      </c>
+      <c r="E50" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="23">
+        <v>33</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="23">
+        <v>500</v>
+      </c>
+      <c r="E51" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="23">
+        <v>34</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="23">
+        <v>240000</v>
+      </c>
+      <c r="E52" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="23">
+        <v>34</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="23">
+        <v>500</v>
+      </c>
+      <c r="E53" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="23">
+        <v>35</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="23">
+        <v>240000</v>
+      </c>
+      <c r="E54" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="23">
+        <v>35</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="23">
+        <v>500</v>
+      </c>
+      <c r="E55" s="23">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4699,11 +4986,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5431,6 +5718,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="23">
+        <v>31</v>
+      </c>
+      <c r="B32" s="23">
+        <v>1</v>
+      </c>
+      <c r="C32" s="23">
+        <v>20</v>
+      </c>
+      <c r="D32" s="23">
+        <v>100</v>
+      </c>
+      <c r="E32" s="23">
+        <v>20</v>
+      </c>
+      <c r="F32" s="23">
+        <v>180</v>
+      </c>
+      <c r="G32" s="23">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5439,11 +5749,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5858,6 +6168,20 @@
         <v>28</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="23">
+        <v>29</v>
+      </c>
+      <c r="B30" s="23">
+        <v>33</v>
+      </c>
+      <c r="C30" s="23">
+        <v>1</v>
+      </c>
+      <c r="D30" s="23">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5867,11 +6191,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6271,6 +6595,17 @@
         <v>1612828800</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="23">
+        <v>33</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="23">
+        <v>1613404799</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6279,11 +6614,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G186" sqref="G186"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G202" sqref="G202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10559,6 +10894,160 @@
         <v>122</v>
       </c>
     </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="5">
+        <v>192</v>
+      </c>
+      <c r="B193" s="23">
+        <v>29</v>
+      </c>
+      <c r="C193" s="23">
+        <v>1</v>
+      </c>
+      <c r="D193" s="23">
+        <v>1</v>
+      </c>
+      <c r="E193" s="23"/>
+      <c r="F193" s="23"/>
+      <c r="G193" s="23">
+        <v>177</v>
+      </c>
+      <c r="H193" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="5">
+        <v>193</v>
+      </c>
+      <c r="B194" s="23">
+        <v>29</v>
+      </c>
+      <c r="C194" s="23">
+        <v>2</v>
+      </c>
+      <c r="D194" s="23">
+        <v>2</v>
+      </c>
+      <c r="E194" s="23"/>
+      <c r="F194" s="23"/>
+      <c r="G194" s="23">
+        <v>178</v>
+      </c>
+      <c r="H194" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="5">
+        <v>194</v>
+      </c>
+      <c r="B195" s="23">
+        <v>29</v>
+      </c>
+      <c r="C195" s="23">
+        <v>3</v>
+      </c>
+      <c r="D195" s="23">
+        <v>3</v>
+      </c>
+      <c r="E195" s="23"/>
+      <c r="F195" s="23"/>
+      <c r="G195" s="23">
+        <v>179</v>
+      </c>
+      <c r="H195" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="5">
+        <v>195</v>
+      </c>
+      <c r="B196" s="23">
+        <v>29</v>
+      </c>
+      <c r="C196" s="23">
+        <v>4</v>
+      </c>
+      <c r="D196" s="23">
+        <v>6</v>
+      </c>
+      <c r="E196" s="23"/>
+      <c r="F196" s="23"/>
+      <c r="G196" s="23">
+        <v>180</v>
+      </c>
+      <c r="H196" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="5">
+        <v>196</v>
+      </c>
+      <c r="B197" s="23">
+        <v>29</v>
+      </c>
+      <c r="C197" s="23">
+        <v>7</v>
+      </c>
+      <c r="D197" s="23">
+        <v>10</v>
+      </c>
+      <c r="E197" s="23"/>
+      <c r="F197" s="23"/>
+      <c r="G197" s="23">
+        <v>181</v>
+      </c>
+      <c r="H197" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="5">
+        <v>197</v>
+      </c>
+      <c r="B198" s="23">
+        <v>29</v>
+      </c>
+      <c r="C198" s="23">
+        <v>11</v>
+      </c>
+      <c r="D198" s="23">
+        <v>15</v>
+      </c>
+      <c r="E198" s="23"/>
+      <c r="F198" s="23"/>
+      <c r="G198" s="23">
+        <v>182</v>
+      </c>
+      <c r="H198" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="5">
+        <v>198</v>
+      </c>
+      <c r="B199" s="23">
+        <v>29</v>
+      </c>
+      <c r="C199" s="23">
+        <v>16</v>
+      </c>
+      <c r="D199" s="23">
+        <v>20</v>
+      </c>
+      <c r="E199" s="23"/>
+      <c r="F199" s="23"/>
+      <c r="G199" s="23">
+        <v>183</v>
+      </c>
+      <c r="H199" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10568,11 +11057,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G188"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E183" sqref="E183"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14190,6 +14679,146 @@
         <v>1</v>
       </c>
     </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="23">
+        <v>181</v>
+      </c>
+      <c r="B182" s="23">
+        <v>177</v>
+      </c>
+      <c r="C182" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="D182" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E182" s="23">
+        <v>50000</v>
+      </c>
+      <c r="F182" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="23">
+        <v>182</v>
+      </c>
+      <c r="B183" s="23">
+        <v>178</v>
+      </c>
+      <c r="C183" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="D183" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E183" s="23">
+        <v>15000</v>
+      </c>
+      <c r="F183" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="23">
+        <v>183</v>
+      </c>
+      <c r="B184" s="23">
+        <v>179</v>
+      </c>
+      <c r="C184" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="D184" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E184" s="23">
+        <v>5000</v>
+      </c>
+      <c r="F184" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="23">
+        <v>184</v>
+      </c>
+      <c r="B185" s="23">
+        <v>180</v>
+      </c>
+      <c r="C185" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="D185" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E185" s="23">
+        <v>1500</v>
+      </c>
+      <c r="F185" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="23">
+        <v>185</v>
+      </c>
+      <c r="B186" s="23">
+        <v>181</v>
+      </c>
+      <c r="C186" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D186" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E186" s="23">
+        <v>1000</v>
+      </c>
+      <c r="F186" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="23">
+        <v>186</v>
+      </c>
+      <c r="B187" s="23">
+        <v>182</v>
+      </c>
+      <c r="C187" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="D187" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E187" s="23">
+        <v>500</v>
+      </c>
+      <c r="F187" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="23">
+        <v>187</v>
+      </c>
+      <c r="B188" s="23">
+        <v>183</v>
+      </c>
+      <c r="C188" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="D188" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E188" s="23">
+        <v>240</v>
+      </c>
+      <c r="F188" s="23">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_2.9/rank_server.xlsx
+++ b/config_2.9/rank_server.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="289">
   <si>
     <t>id|</t>
   </si>
@@ -1861,7 +1861,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6883,8 +6883,8 @@
   <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G125" sqref="G125"/>
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H225" sqref="H224:H225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11660,11 +11660,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A196" sqref="A196:F202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15562,6 +15562,146 @@
         <v>1</v>
       </c>
     </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="34">
+        <v>195</v>
+      </c>
+      <c r="B196" s="34">
+        <v>191</v>
+      </c>
+      <c r="C196" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="D196" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E196" s="34">
+        <v>100000</v>
+      </c>
+      <c r="F196" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="34">
+        <v>196</v>
+      </c>
+      <c r="B197" s="34">
+        <v>192</v>
+      </c>
+      <c r="C197" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="D197" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E197" s="34">
+        <v>30000</v>
+      </c>
+      <c r="F197" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="34">
+        <v>197</v>
+      </c>
+      <c r="B198" s="34">
+        <v>193</v>
+      </c>
+      <c r="C198" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D198" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E198" s="34">
+        <v>10000</v>
+      </c>
+      <c r="F198" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="34">
+        <v>198</v>
+      </c>
+      <c r="B199" s="34">
+        <v>194</v>
+      </c>
+      <c r="C199" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="D199" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E199" s="34">
+        <v>3000</v>
+      </c>
+      <c r="F199" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="34">
+        <v>199</v>
+      </c>
+      <c r="B200" s="34">
+        <v>195</v>
+      </c>
+      <c r="C200" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="D200" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E200" s="34">
+        <v>2000</v>
+      </c>
+      <c r="F200" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="34">
+        <v>200</v>
+      </c>
+      <c r="B201" s="34">
+        <v>196</v>
+      </c>
+      <c r="C201" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D201" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E201" s="34">
+        <v>1000</v>
+      </c>
+      <c r="F201" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="34">
+        <v>201</v>
+      </c>
+      <c r="B202" s="34">
+        <v>197</v>
+      </c>
+      <c r="C202" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D202" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E202" s="34">
+        <v>500</v>
+      </c>
+      <c r="F202" s="34">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_2.9/rank_server.xlsx
+++ b/config_2.9/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="289">
   <si>
     <t>id|</t>
   </si>
@@ -1305,6 +1305,14 @@
   </si>
   <si>
     <t>prop_fish_drop_act_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nyx_006_yxbd_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵榜单</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1447,7 +1455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1571,6 +1579,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1849,11 +1863,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3051,6 +3065,41 @@
         <v>30</v>
       </c>
     </row>
+    <row r="34" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="47">
+        <v>33</v>
+      </c>
+      <c r="B34" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="E34" s="47">
+        <v>1614038400</v>
+      </c>
+      <c r="F34" s="47">
+        <v>1614614399</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="47">
+        <v>33</v>
+      </c>
+      <c r="K34" s="47">
+        <v>33</v>
+      </c>
+      <c r="L34" s="47">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3060,11 +3109,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3981,6 +4030,34 @@
         <v>36</v>
       </c>
     </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="34">
+        <v>33</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D67" s="34">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="34">
+        <v>33</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="D68" s="34">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3993,7 +4070,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4920,6 +4997,40 @@
         <v>286</v>
       </c>
       <c r="E54" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="34">
+        <v>37</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" s="34">
+        <v>9</v>
+      </c>
+      <c r="E55" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="34">
+        <v>37</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="E56" s="34">
         <v>2</v>
       </c>
     </row>
@@ -5051,11 +5162,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" activeCellId="1" sqref="A33:G33 D38"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5829,6 +5940,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="34">
+        <v>20</v>
+      </c>
+      <c r="D34" s="34">
+        <v>100</v>
+      </c>
+      <c r="E34" s="34">
+        <v>20</v>
+      </c>
+      <c r="F34" s="34">
+        <v>180</v>
+      </c>
+      <c r="G34" s="34">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5837,11 +5971,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6284,6 +6418,20 @@
         <v>30</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="34">
+        <v>31</v>
+      </c>
+      <c r="B32" s="34">
+        <v>35</v>
+      </c>
+      <c r="C32" s="34">
+        <v>1</v>
+      </c>
+      <c r="D32" s="34">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6293,11 +6441,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6719,6 +6867,17 @@
         <v>1614009599</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="34">
+        <v>35</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="47">
+        <v>1614614399</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6727,11 +6886,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I206"/>
+  <dimension ref="A1:I213"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G200" sqref="G200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11315,6 +11474,160 @@
         <v>122</v>
       </c>
     </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="5">
+        <v>206</v>
+      </c>
+      <c r="B207" s="34">
+        <v>31</v>
+      </c>
+      <c r="C207" s="34">
+        <v>1</v>
+      </c>
+      <c r="D207" s="34">
+        <v>1</v>
+      </c>
+      <c r="E207" s="34"/>
+      <c r="F207" s="34"/>
+      <c r="G207" s="34">
+        <v>191</v>
+      </c>
+      <c r="H207" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="5">
+        <v>207</v>
+      </c>
+      <c r="B208" s="34">
+        <v>31</v>
+      </c>
+      <c r="C208" s="34">
+        <v>2</v>
+      </c>
+      <c r="D208" s="34">
+        <v>2</v>
+      </c>
+      <c r="E208" s="34"/>
+      <c r="F208" s="34"/>
+      <c r="G208" s="34">
+        <v>192</v>
+      </c>
+      <c r="H208" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="5">
+        <v>208</v>
+      </c>
+      <c r="B209" s="34">
+        <v>31</v>
+      </c>
+      <c r="C209" s="34">
+        <v>3</v>
+      </c>
+      <c r="D209" s="34">
+        <v>3</v>
+      </c>
+      <c r="E209" s="34"/>
+      <c r="F209" s="34"/>
+      <c r="G209" s="34">
+        <v>193</v>
+      </c>
+      <c r="H209" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="5">
+        <v>209</v>
+      </c>
+      <c r="B210" s="34">
+        <v>31</v>
+      </c>
+      <c r="C210" s="34">
+        <v>4</v>
+      </c>
+      <c r="D210" s="34">
+        <v>6</v>
+      </c>
+      <c r="E210" s="34"/>
+      <c r="F210" s="34"/>
+      <c r="G210" s="34">
+        <v>194</v>
+      </c>
+      <c r="H210" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="5">
+        <v>210</v>
+      </c>
+      <c r="B211" s="34">
+        <v>31</v>
+      </c>
+      <c r="C211" s="34">
+        <v>7</v>
+      </c>
+      <c r="D211" s="34">
+        <v>10</v>
+      </c>
+      <c r="E211" s="34"/>
+      <c r="F211" s="34"/>
+      <c r="G211" s="34">
+        <v>195</v>
+      </c>
+      <c r="H211" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="5">
+        <v>211</v>
+      </c>
+      <c r="B212" s="34">
+        <v>31</v>
+      </c>
+      <c r="C212" s="34">
+        <v>11</v>
+      </c>
+      <c r="D212" s="34">
+        <v>15</v>
+      </c>
+      <c r="E212" s="34"/>
+      <c r="F212" s="34"/>
+      <c r="G212" s="34">
+        <v>196</v>
+      </c>
+      <c r="H212" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="5">
+        <v>212</v>
+      </c>
+      <c r="B213" s="34">
+        <v>31</v>
+      </c>
+      <c r="C213" s="34">
+        <v>16</v>
+      </c>
+      <c r="D213" s="34">
+        <v>20</v>
+      </c>
+      <c r="E213" s="34"/>
+      <c r="F213" s="34"/>
+      <c r="G213" s="34">
+        <v>197</v>
+      </c>
+      <c r="H213" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11326,7 +11639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D191" sqref="D191"/>
     </sheetView>

--- a/config_2.9/rank_server.xlsx
+++ b/config_2.9/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="290">
   <si>
     <t>id|</t>
   </si>
@@ -1313,6 +1313,10 @@
   </si>
   <si>
     <t>元宵榜单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4070,7 +4074,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5028,7 +5032,7 @@
         <v>253</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E56" s="34">
         <v>2</v>
@@ -5973,9 +5977,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6888,9 +6892,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D214" sqref="D214"/>
+      <selection pane="bottomLeft" activeCell="F217" sqref="F217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_2.9/rank_server.xlsx
+++ b/config_2.9/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="289">
   <si>
     <t>id|</t>
   </si>
@@ -1305,6 +1305,14 @@
   </si>
   <si>
     <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>more</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_add</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1851,9 +1859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3000,11 +3008,11 @@
       <c r="F32" s="28">
         <v>1613404799</v>
       </c>
-      <c r="G32" s="28" t="s">
-        <v>13</v>
+      <c r="G32" s="29" t="s">
+        <v>288</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>14</v>
+        <v>287</v>
       </c>
       <c r="I32" s="28">
         <v>31</v>
@@ -11654,9 +11662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G112" sqref="G112"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_2.9/rank_server.xlsx
+++ b/config_2.9/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="287">
   <si>
     <t>id|</t>
   </si>
@@ -1027,38 +1027,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>5个高级核弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2个初级核弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5个初级核弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2个中级核弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个高级核弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>dz_jzsjb_rank</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1317,6 +1285,26 @@
   </si>
   <si>
     <t>prop_fish_drop_act_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>30万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2万福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1459,7 +1447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1558,7 +1546,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1567,12 +1554,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1591,6 +1572,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1869,9 +1851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1899,7 +1881,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2625,10 +2607,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E21" s="27">
         <v>1607385600</v>
@@ -2692,10 +2674,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E23" s="27">
         <v>1607990400</v>
@@ -2727,15 +2709,15 @@
         <v>0</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="E24" s="44">
+        <v>239</v>
+      </c>
+      <c r="E24" s="41">
         <v>1608595200</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="41">
         <v>1609171199</v>
       </c>
       <c r="G24" s="27" t="s">
@@ -2762,15 +2744,15 @@
         <v>0</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="E25" s="44">
+        <v>240</v>
+      </c>
+      <c r="E25" s="41">
         <v>1609200000</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="41">
         <v>1609775999</v>
       </c>
       <c r="G25" s="27" t="s">
@@ -2797,15 +2779,15 @@
         <v>0</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="E26" s="44">
+        <v>251</v>
+      </c>
+      <c r="E26" s="41">
         <v>1609804800</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="41">
         <v>1610380799</v>
       </c>
       <c r="G26" s="27" t="s">
@@ -2832,10 +2814,10 @@
         <v>0</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E27" s="27">
         <v>1610407800</v>
@@ -2867,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E28" s="27">
         <v>1610409600</v>
@@ -2902,10 +2884,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E29" s="27">
         <v>1611590400</v>
@@ -2937,10 +2919,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E30" s="27">
         <v>1612224000</v>
@@ -2972,10 +2954,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E31" s="28">
         <v>1612828800</v>
@@ -3007,10 +2989,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E32" s="28">
         <v>1612828800</v>
@@ -3034,73 +3016,73 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="45">
+    <row r="33" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="42">
         <v>32</v>
       </c>
-      <c r="B33" s="45" t="b">
+      <c r="B33" s="42" t="b">
         <v>1</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="E33" s="45">
+        <v>276</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33" s="42">
         <v>1613433600</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="42">
         <v>1614009599</v>
       </c>
-      <c r="G33" s="45" t="s">
+      <c r="G33" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="45" t="s">
+      <c r="H33" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="45">
+      <c r="I33" s="42">
         <v>32</v>
       </c>
-      <c r="K33" s="45">
+      <c r="K33" s="42">
         <v>32</v>
       </c>
-      <c r="L33" s="45">
+      <c r="L33" s="42">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="47">
+    <row r="34" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="44">
         <v>33</v>
       </c>
-      <c r="B34" s="47" t="b">
+      <c r="B34" s="44" t="b">
         <v>1</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="E34" s="47">
+        <v>279</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="E34" s="44">
         <v>1614038400</v>
       </c>
-      <c r="F34" s="47">
+      <c r="F34" s="44">
         <v>1614614399</v>
       </c>
-      <c r="G34" s="47" t="s">
+      <c r="G34" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="47" t="s">
+      <c r="H34" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="47">
+      <c r="I34" s="44">
         <v>33</v>
       </c>
-      <c r="K34" s="47">
+      <c r="K34" s="44">
         <v>33</v>
       </c>
-      <c r="L34" s="47">
+      <c r="L34" s="44">
         <v>31</v>
       </c>
     </row>
@@ -3666,7 +3648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3679,10 +3661,10 @@
       <c r="D41" s="5">
         <v>22</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-    </row>
-    <row r="42" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+    </row>
+    <row r="42" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3690,13 +3672,13 @@
         <v>21</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D42" s="5">
         <v>22</v>
       </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
@@ -3720,7 +3702,7 @@
         <v>22</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D44" s="5">
         <v>23</v>
@@ -3748,7 +3730,7 @@
         <v>23</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D46" s="5">
         <v>24</v>
@@ -3776,7 +3758,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D48" s="5">
         <v>25</v>
@@ -3804,7 +3786,7 @@
         <v>25</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D50" s="5">
         <v>26</v>
@@ -3832,7 +3814,7 @@
         <v>26</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D52" s="5">
         <v>27</v>
@@ -3860,7 +3842,7 @@
         <v>27</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D54" s="5">
         <v>28</v>
@@ -3888,7 +3870,7 @@
         <v>28</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D56" s="5">
         <v>29</v>
@@ -3916,7 +3898,7 @@
         <v>29</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D58" s="5">
         <v>30</v>
@@ -3944,7 +3926,7 @@
         <v>30</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D60" s="31">
         <v>31</v>
@@ -3958,7 +3940,7 @@
         <v>31</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D61" s="31">
         <v>32</v>
@@ -3972,7 +3954,7 @@
         <v>31</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D62" s="31">
         <v>33</v>
@@ -4000,7 +3982,7 @@
         <v>31</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D64" s="31">
         <v>35</v>
@@ -4028,7 +4010,7 @@
         <v>32</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D66" s="23">
         <v>36</v>
@@ -4056,7 +4038,7 @@
         <v>33</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D68" s="34">
         <v>37</v>
@@ -4511,7 +4493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4553,10 +4535,10 @@
         <v>23</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E28" s="5">
         <v>2</v>
@@ -4587,10 +4569,10 @@
         <v>24</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E30" s="5">
         <v>2</v>
@@ -4621,10 +4603,10 @@
         <v>25</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E32" s="5">
         <v>2</v>
@@ -4655,10 +4637,10 @@
         <v>26</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E34" s="5">
         <v>2</v>
@@ -4689,10 +4671,10 @@
         <v>27</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E36" s="5">
         <v>2</v>
@@ -4723,10 +4705,10 @@
         <v>28</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E38" s="5">
         <v>2</v>
@@ -4757,10 +4739,10 @@
         <v>29</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E40" s="5">
         <v>2</v>
@@ -4791,10 +4773,10 @@
         <v>30</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E42" s="5">
         <v>2</v>
@@ -4825,10 +4807,10 @@
         <v>31</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E44" s="31">
         <v>2</v>
@@ -4842,7 +4824,7 @@
         <v>32</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D45" s="31">
         <v>240000</v>
@@ -4995,10 +4977,10 @@
         <v>36</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E54" s="23">
         <v>2</v>
@@ -5029,10 +5011,10 @@
         <v>37</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E56" s="34">
         <v>2</v>
@@ -5169,8 +5151,8 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34:G34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5644,26 +5626,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39">
+    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="38">
         <v>20</v>
       </c>
-      <c r="B21" s="39">
-        <v>1</v>
-      </c>
-      <c r="C21" s="39">
+      <c r="B21" s="38">
+        <v>1</v>
+      </c>
+      <c r="C21" s="38">
         <v>20</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="38">
         <v>100</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="38">
         <v>20</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="38">
         <v>180</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="38">
         <v>10</v>
       </c>
     </row>
@@ -5898,7 +5880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31">
         <v>31</v>
       </c>
@@ -5977,9 +5959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6448,8 +6430,8 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6768,7 +6750,7 @@
       <c r="B26" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="41">
         <v>1609171199</v>
       </c>
     </row>
@@ -6779,7 +6761,7 @@
       <c r="B27" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="44">
+      <c r="C27" s="41">
         <v>1609775999</v>
       </c>
     </row>
@@ -6790,7 +6772,7 @@
       <c r="B28" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="41">
         <v>1610380799</v>
       </c>
     </row>
@@ -6867,7 +6849,7 @@
       <c r="B35" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="45">
+      <c r="C35" s="42">
         <v>1614009599</v>
       </c>
     </row>
@@ -6878,7 +6860,7 @@
       <c r="B36" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="47">
+      <c r="C36" s="44">
         <v>1614614399</v>
       </c>
     </row>
@@ -6893,8 +6875,8 @@
   <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F217" sqref="F217"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8804,983 +8786,1012 @@
       </c>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="23">
+    <row r="86" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B86" s="23">
+      <c r="B86" s="5">
         <v>12</v>
       </c>
-      <c r="C86" s="23">
-        <v>1</v>
-      </c>
-      <c r="D86" s="23">
-        <v>1</v>
-      </c>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23">
+      <c r="C86" s="5">
+        <v>1</v>
+      </c>
+      <c r="D86" s="5">
+        <v>1</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5">
         <v>85</v>
       </c>
-      <c r="H86" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="23">
+      <c r="H86" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="5">
         <v>86</v>
       </c>
-      <c r="B87" s="23">
+      <c r="B87" s="5">
         <v>12</v>
       </c>
-      <c r="C87" s="23">
+      <c r="C87" s="5">
         <v>2</v>
       </c>
-      <c r="D87" s="23">
+      <c r="D87" s="5">
         <v>2</v>
       </c>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23">
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5">
         <v>86</v>
       </c>
-      <c r="H87" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="23">
+      <c r="H87" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5">
         <v>87</v>
       </c>
-      <c r="B88" s="23">
+      <c r="B88" s="5">
         <v>12</v>
       </c>
-      <c r="C88" s="23">
+      <c r="C88" s="5">
         <v>3</v>
       </c>
-      <c r="D88" s="23">
+      <c r="D88" s="5">
         <v>3</v>
       </c>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23">
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5">
         <v>87</v>
       </c>
-      <c r="H88" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="23">
+      <c r="H88" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5">
         <v>88</v>
       </c>
-      <c r="B89" s="23">
+      <c r="B89" s="5">
         <v>12</v>
       </c>
-      <c r="C89" s="23">
+      <c r="C89" s="5">
         <v>4</v>
       </c>
-      <c r="D89" s="23">
+      <c r="D89" s="5">
         <v>6</v>
       </c>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23">
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5">
         <v>88</v>
       </c>
-      <c r="H89" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="23">
+      <c r="H89" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="23">
+      <c r="B90" s="5">
         <v>12</v>
       </c>
-      <c r="C90" s="23">
+      <c r="C90" s="5">
         <v>7</v>
       </c>
-      <c r="D90" s="23">
+      <c r="D90" s="5">
         <v>10</v>
       </c>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23">
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5">
         <v>89</v>
       </c>
-      <c r="H90" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="23">
+      <c r="H90" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5">
         <v>90</v>
       </c>
-      <c r="B91" s="23">
+      <c r="B91" s="5">
         <v>12</v>
       </c>
-      <c r="C91" s="23">
+      <c r="C91" s="5">
         <v>11</v>
       </c>
-      <c r="D91" s="23">
+      <c r="D91" s="5">
         <v>15</v>
       </c>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23">
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5">
         <v>90</v>
       </c>
-      <c r="H91" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="23">
+      <c r="H91" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
         <v>91</v>
       </c>
-      <c r="B92" s="23">
+      <c r="B92" s="5">
         <v>12</v>
       </c>
-      <c r="C92" s="23">
+      <c r="C92" s="5">
         <v>16</v>
       </c>
-      <c r="D92" s="23">
+      <c r="D92" s="5">
         <v>20</v>
       </c>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23">
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5">
         <v>91</v>
       </c>
-      <c r="H92" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="34">
+      <c r="H92" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
         <v>92</v>
       </c>
-      <c r="B93" s="34">
+      <c r="B93" s="5">
         <v>13</v>
       </c>
-      <c r="C93" s="34">
-        <v>1</v>
-      </c>
-      <c r="D93" s="34">
-        <v>1</v>
-      </c>
-      <c r="E93" s="34"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34">
+      <c r="C93" s="5">
+        <v>1</v>
+      </c>
+      <c r="D93" s="5">
+        <v>1</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5">
         <v>92</v>
       </c>
-      <c r="H93" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="I93" s="34"/>
-    </row>
-    <row r="94" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="34">
+      <c r="H93" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="34">
+      <c r="B94" s="5">
         <v>13</v>
       </c>
-      <c r="C94" s="34">
+      <c r="C94" s="5">
         <v>2</v>
       </c>
-      <c r="D94" s="34">
+      <c r="D94" s="5">
         <v>2</v>
       </c>
-      <c r="E94" s="34"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34">
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5">
         <v>93</v>
       </c>
-      <c r="H94" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="I94" s="34"/>
-    </row>
-    <row r="95" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="34">
+      <c r="H94" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5">
         <v>94</v>
       </c>
-      <c r="B95" s="34">
+      <c r="B95" s="5">
         <v>13</v>
       </c>
-      <c r="C95" s="34">
+      <c r="C95" s="5">
         <v>3</v>
       </c>
-      <c r="D95" s="34">
+      <c r="D95" s="5">
         <v>3</v>
       </c>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34">
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5">
         <v>94</v>
       </c>
-      <c r="H95" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="I95" s="34"/>
-    </row>
-    <row r="96" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="34">
+      <c r="H95" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5">
         <v>95</v>
       </c>
-      <c r="B96" s="34">
+      <c r="B96" s="5">
         <v>13</v>
       </c>
-      <c r="C96" s="34">
+      <c r="C96" s="5">
         <v>4</v>
       </c>
-      <c r="D96" s="34">
+      <c r="D96" s="5">
         <v>10</v>
       </c>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34">
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5">
         <v>95</v>
       </c>
-      <c r="H96" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="I96" s="34"/>
-    </row>
-    <row r="97" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="34">
+      <c r="H96" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5">
         <v>96</v>
       </c>
-      <c r="B97" s="34">
+      <c r="B97" s="5">
         <v>13</v>
       </c>
-      <c r="C97" s="34">
+      <c r="C97" s="5">
         <v>11</v>
       </c>
-      <c r="D97" s="34">
+      <c r="D97" s="5">
         <v>20</v>
       </c>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34">
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5">
         <v>96</v>
       </c>
-      <c r="H97" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="I97" s="34"/>
+      <c r="H97" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I97" s="5"/>
     </row>
     <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="31">
+      <c r="A98" s="5">
         <v>97</v>
       </c>
-      <c r="B98" s="31">
+      <c r="B98" s="5">
         <v>14</v>
       </c>
-      <c r="C98" s="31">
-        <v>1</v>
-      </c>
-      <c r="D98" s="31">
-        <v>1</v>
-      </c>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31">
+      <c r="C98" s="5">
+        <v>1</v>
+      </c>
+      <c r="D98" s="5">
+        <v>1</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5">
         <v>97</v>
       </c>
-      <c r="H98" s="32" t="s">
+      <c r="H98" s="6" t="s">
         <v>122</v>
       </c>
       <c r="I98" s="5"/>
     </row>
     <row r="99" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="31">
+      <c r="A99" s="5">
         <v>98</v>
       </c>
-      <c r="B99" s="31">
+      <c r="B99" s="5">
         <v>14</v>
       </c>
-      <c r="C99" s="31">
+      <c r="C99" s="5">
         <v>2</v>
       </c>
-      <c r="D99" s="31">
+      <c r="D99" s="5">
         <v>2</v>
       </c>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31"/>
-      <c r="G99" s="31">
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5">
         <v>98</v>
       </c>
-      <c r="H99" s="32" t="s">
+      <c r="H99" s="6" t="s">
         <v>122</v>
       </c>
       <c r="I99" s="5"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="31">
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5">
         <v>99</v>
       </c>
-      <c r="B100" s="31">
+      <c r="B100" s="5">
         <v>14</v>
       </c>
-      <c r="C100" s="31">
+      <c r="C100" s="5">
         <v>3</v>
       </c>
-      <c r="D100" s="31">
+      <c r="D100" s="5">
         <v>3</v>
       </c>
-      <c r="E100" s="31"/>
-      <c r="F100" s="31"/>
-      <c r="G100" s="31">
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5">
         <v>99</v>
       </c>
-      <c r="H100" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="31">
+      <c r="H100" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="5">
         <v>100</v>
       </c>
-      <c r="B101" s="31">
+      <c r="B101" s="5">
         <v>14</v>
       </c>
-      <c r="C101" s="31">
+      <c r="C101" s="5">
         <v>4</v>
       </c>
-      <c r="D101" s="31">
+      <c r="D101" s="5">
         <v>10</v>
       </c>
-      <c r="E101" s="31"/>
-      <c r="F101" s="31"/>
-      <c r="G101" s="31">
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5">
         <v>100</v>
       </c>
-      <c r="H101" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="31">
+      <c r="H101" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5">
         <v>101</v>
       </c>
-      <c r="B102" s="31">
+      <c r="B102" s="5">
         <v>14</v>
       </c>
-      <c r="C102" s="31">
+      <c r="C102" s="5">
         <v>11</v>
       </c>
-      <c r="D102" s="31">
+      <c r="D102" s="5">
         <v>20</v>
       </c>
-      <c r="E102" s="31"/>
-      <c r="F102" s="31"/>
-      <c r="G102" s="31">
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5">
         <v>101</v>
       </c>
-      <c r="H102" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="31">
+      <c r="H102" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="5">
         <v>102</v>
       </c>
-      <c r="B103" s="31">
+      <c r="B103" s="5">
         <v>15</v>
       </c>
-      <c r="C103" s="31">
-        <v>1</v>
-      </c>
-      <c r="D103" s="31">
-        <v>1</v>
-      </c>
-      <c r="E103" s="31"/>
-      <c r="F103" s="31"/>
-      <c r="G103" s="31">
+      <c r="C103" s="5">
+        <v>1</v>
+      </c>
+      <c r="D103" s="5">
+        <v>1</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5">
         <v>97</v>
       </c>
-      <c r="H103" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="31">
+      <c r="H103" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="5">
         <v>103</v>
       </c>
-      <c r="B104" s="31">
+      <c r="B104" s="5">
         <v>15</v>
       </c>
-      <c r="C104" s="31">
+      <c r="C104" s="5">
         <v>2</v>
       </c>
-      <c r="D104" s="31">
+      <c r="D104" s="5">
         <v>2</v>
       </c>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="31">
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5">
         <v>98</v>
       </c>
-      <c r="H104" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="31">
+      <c r="H104" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="5">
         <v>104</v>
       </c>
-      <c r="B105" s="31">
+      <c r="B105" s="5">
         <v>15</v>
       </c>
-      <c r="C105" s="31">
+      <c r="C105" s="5">
         <v>3</v>
       </c>
-      <c r="D105" s="31">
+      <c r="D105" s="5">
         <v>3</v>
       </c>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="31">
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5">
         <v>99</v>
       </c>
-      <c r="H105" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="31">
+      <c r="H105" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I105" s="5"/>
+    </row>
+    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="5">
         <v>105</v>
       </c>
-      <c r="B106" s="31">
+      <c r="B106" s="5">
         <v>15</v>
       </c>
-      <c r="C106" s="31">
+      <c r="C106" s="5">
         <v>4</v>
       </c>
-      <c r="D106" s="31">
+      <c r="D106" s="5">
         <v>10</v>
       </c>
-      <c r="E106" s="31"/>
-      <c r="F106" s="31"/>
-      <c r="G106" s="31">
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5">
         <v>100</v>
       </c>
-      <c r="H106" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="31">
+      <c r="H106" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="5">
         <v>106</v>
       </c>
-      <c r="B107" s="31">
+      <c r="B107" s="5">
         <v>15</v>
       </c>
-      <c r="C107" s="31">
+      <c r="C107" s="5">
         <v>11</v>
       </c>
-      <c r="D107" s="31">
+      <c r="D107" s="5">
         <v>20</v>
       </c>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31"/>
-      <c r="G107" s="31">
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5">
         <v>101</v>
       </c>
-      <c r="H107" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="31">
+      <c r="H107" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="5">
         <v>107</v>
       </c>
-      <c r="B108" s="31">
+      <c r="B108" s="5">
         <v>16</v>
       </c>
-      <c r="C108" s="31">
-        <v>1</v>
-      </c>
-      <c r="D108" s="31">
-        <v>1</v>
-      </c>
-      <c r="E108" s="31"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="31">
+      <c r="C108" s="5">
+        <v>1</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5">
         <v>97</v>
       </c>
-      <c r="H108" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="31">
+      <c r="H108" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="5">
         <v>108</v>
       </c>
-      <c r="B109" s="31">
+      <c r="B109" s="5">
         <v>16</v>
       </c>
-      <c r="C109" s="31">
+      <c r="C109" s="5">
         <v>2</v>
       </c>
-      <c r="D109" s="31">
+      <c r="D109" s="5">
         <v>2</v>
       </c>
-      <c r="E109" s="31"/>
-      <c r="F109" s="31"/>
-      <c r="G109" s="31">
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5">
         <v>98</v>
       </c>
-      <c r="H109" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="31">
+      <c r="H109" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="5">
         <v>109</v>
       </c>
-      <c r="B110" s="31">
+      <c r="B110" s="5">
         <v>16</v>
       </c>
-      <c r="C110" s="31">
+      <c r="C110" s="5">
         <v>3</v>
       </c>
-      <c r="D110" s="31">
+      <c r="D110" s="5">
         <v>3</v>
       </c>
-      <c r="E110" s="31"/>
-      <c r="F110" s="31"/>
-      <c r="G110" s="31">
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5">
         <v>99</v>
       </c>
-      <c r="H110" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="31">
+      <c r="H110" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="5">
         <v>110</v>
       </c>
-      <c r="B111" s="31">
+      <c r="B111" s="5">
         <v>16</v>
       </c>
-      <c r="C111" s="31">
+      <c r="C111" s="5">
         <v>4</v>
       </c>
-      <c r="D111" s="31">
+      <c r="D111" s="5">
         <v>10</v>
       </c>
-      <c r="E111" s="31"/>
-      <c r="F111" s="31"/>
-      <c r="G111" s="31">
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5">
         <v>100</v>
       </c>
-      <c r="H111" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="31">
+      <c r="H111" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
         <v>111</v>
       </c>
-      <c r="B112" s="31">
+      <c r="B112" s="5">
         <v>16</v>
       </c>
-      <c r="C112" s="31">
+      <c r="C112" s="5">
         <v>11</v>
       </c>
-      <c r="D112" s="31">
+      <c r="D112" s="5">
         <v>20</v>
       </c>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="31">
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5">
         <v>101</v>
       </c>
-      <c r="H112" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="31">
+      <c r="H112" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="5">
         <v>112</v>
       </c>
-      <c r="B113" s="31">
+      <c r="B113" s="5">
         <v>17</v>
       </c>
-      <c r="C113" s="31">
-        <v>1</v>
-      </c>
-      <c r="D113" s="31">
-        <v>1</v>
-      </c>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="31">
+      <c r="C113" s="5">
+        <v>1</v>
+      </c>
+      <c r="D113" s="5">
+        <v>1</v>
+      </c>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5">
         <v>97</v>
       </c>
-      <c r="H113" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="31">
+      <c r="H113" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I113" s="5"/>
+    </row>
+    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="5">
         <v>113</v>
       </c>
-      <c r="B114" s="31">
+      <c r="B114" s="5">
         <v>17</v>
       </c>
-      <c r="C114" s="31">
+      <c r="C114" s="5">
         <v>2</v>
       </c>
-      <c r="D114" s="31">
+      <c r="D114" s="5">
         <v>2</v>
       </c>
-      <c r="E114" s="31"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="31">
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5">
         <v>98</v>
       </c>
-      <c r="H114" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="31">
+      <c r="H114" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I114" s="5"/>
+    </row>
+    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="5">
         <v>114</v>
       </c>
-      <c r="B115" s="31">
+      <c r="B115" s="5">
         <v>17</v>
       </c>
-      <c r="C115" s="31">
+      <c r="C115" s="5">
         <v>3</v>
       </c>
-      <c r="D115" s="31">
+      <c r="D115" s="5">
         <v>3</v>
       </c>
-      <c r="E115" s="31"/>
-      <c r="F115" s="31"/>
-      <c r="G115" s="31">
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5">
         <v>99</v>
       </c>
-      <c r="H115" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="31">
+      <c r="H115" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I115" s="5"/>
+    </row>
+    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="5">
         <v>115</v>
       </c>
-      <c r="B116" s="31">
+      <c r="B116" s="5">
         <v>17</v>
       </c>
-      <c r="C116" s="31">
+      <c r="C116" s="5">
         <v>4</v>
       </c>
-      <c r="D116" s="31">
+      <c r="D116" s="5">
         <v>10</v>
       </c>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="31">
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5">
         <v>100</v>
       </c>
-      <c r="H116" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="31">
+      <c r="H116" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I116" s="5"/>
+    </row>
+    <row r="117" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="5">
         <v>116</v>
       </c>
-      <c r="B117" s="31">
+      <c r="B117" s="5">
         <v>17</v>
       </c>
-      <c r="C117" s="31">
+      <c r="C117" s="5">
         <v>11</v>
       </c>
-      <c r="D117" s="31">
+      <c r="D117" s="5">
         <v>20</v>
       </c>
-      <c r="E117" s="31"/>
-      <c r="F117" s="31"/>
-      <c r="G117" s="31">
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5">
         <v>101</v>
       </c>
-      <c r="H117" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="39">
+      <c r="H117" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I117" s="5"/>
+    </row>
+    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="5">
         <v>117</v>
       </c>
-      <c r="B118" s="39">
+      <c r="B118" s="5">
         <v>18</v>
       </c>
-      <c r="C118" s="39">
-        <v>1</v>
-      </c>
-      <c r="D118" s="39">
-        <v>1</v>
-      </c>
-      <c r="E118" s="39"/>
-      <c r="F118" s="39"/>
-      <c r="G118" s="39">
+      <c r="C118" s="5">
+        <v>1</v>
+      </c>
+      <c r="D118" s="5">
+        <v>1</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5">
         <v>102</v>
       </c>
-      <c r="H118" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="I118" s="39"/>
-    </row>
-    <row r="119" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="39">
+      <c r="H118" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I118" s="5"/>
+    </row>
+    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="5">
         <v>118</v>
       </c>
-      <c r="B119" s="39">
+      <c r="B119" s="5">
         <v>18</v>
       </c>
-      <c r="C119" s="39">
+      <c r="C119" s="5">
         <v>2</v>
       </c>
-      <c r="D119" s="39">
+      <c r="D119" s="5">
         <v>2</v>
       </c>
-      <c r="E119" s="39"/>
-      <c r="F119" s="39"/>
-      <c r="G119" s="39">
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5">
         <v>103</v>
       </c>
-      <c r="H119" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="I119" s="39"/>
-    </row>
-    <row r="120" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="39">
+      <c r="H119" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I119" s="5"/>
+    </row>
+    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="5">
         <v>119</v>
       </c>
-      <c r="B120" s="39">
+      <c r="B120" s="5">
         <v>18</v>
       </c>
-      <c r="C120" s="39">
+      <c r="C120" s="5">
         <v>3</v>
       </c>
-      <c r="D120" s="39">
+      <c r="D120" s="5">
         <v>3</v>
       </c>
-      <c r="E120" s="39"/>
-      <c r="F120" s="39"/>
-      <c r="G120" s="39">
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5">
         <v>104</v>
       </c>
-      <c r="H120" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="I120" s="39"/>
-    </row>
-    <row r="121" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="39">
+      <c r="H120" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I120" s="5"/>
+    </row>
+    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="5">
         <v>120</v>
       </c>
-      <c r="B121" s="39">
+      <c r="B121" s="5">
         <v>18</v>
       </c>
-      <c r="C121" s="39">
+      <c r="C121" s="5">
         <v>4</v>
       </c>
-      <c r="D121" s="39">
+      <c r="D121" s="5">
         <v>6</v>
       </c>
-      <c r="E121" s="39"/>
-      <c r="F121" s="39"/>
-      <c r="G121" s="39">
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5">
         <v>105</v>
       </c>
-      <c r="H121" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="I121" s="39"/>
-    </row>
-    <row r="122" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="39">
+      <c r="H121" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I121" s="5"/>
+    </row>
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="5">
         <v>121</v>
       </c>
-      <c r="B122" s="39">
+      <c r="B122" s="5">
         <v>18</v>
       </c>
-      <c r="C122" s="39">
+      <c r="C122" s="5">
         <v>7</v>
       </c>
-      <c r="D122" s="39">
+      <c r="D122" s="5">
         <v>10</v>
       </c>
-      <c r="E122" s="39"/>
-      <c r="F122" s="39"/>
-      <c r="G122" s="39">
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5">
         <v>106</v>
       </c>
-      <c r="H122" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="I122" s="39"/>
-    </row>
-    <row r="123" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="39">
-        <v>122</v>
-      </c>
-      <c r="B123" s="39">
+      <c r="H122" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I122" s="5"/>
+    </row>
+    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="5">
+        <v>122</v>
+      </c>
+      <c r="B123" s="5">
         <v>18</v>
       </c>
-      <c r="C123" s="39">
+      <c r="C123" s="5">
         <v>11</v>
       </c>
-      <c r="D123" s="39">
+      <c r="D123" s="5">
         <v>15</v>
       </c>
-      <c r="E123" s="39"/>
-      <c r="F123" s="39"/>
-      <c r="G123" s="39">
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5">
         <v>107</v>
       </c>
-      <c r="H123" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="I123" s="39"/>
-    </row>
-    <row r="124" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="39">
+      <c r="H123" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I123" s="5"/>
+    </row>
+    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="5">
         <v>123</v>
       </c>
-      <c r="B124" s="39">
+      <c r="B124" s="5">
         <v>18</v>
       </c>
-      <c r="C124" s="39">
+      <c r="C124" s="5">
         <v>16</v>
       </c>
-      <c r="D124" s="39">
+      <c r="D124" s="5">
         <v>20</v>
       </c>
-      <c r="E124" s="39"/>
-      <c r="F124" s="39"/>
-      <c r="G124" s="39">
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5">
         <v>108</v>
       </c>
-      <c r="H124" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="I124" s="39"/>
+      <c r="H124" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I124" s="5"/>
     </row>
     <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
+      <c r="A125" s="23">
         <v>124</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="23">
         <v>19</v>
       </c>
-      <c r="C125" s="2">
-        <v>1</v>
-      </c>
-      <c r="D125" s="2">
-        <v>1</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2">
+      <c r="C125" s="23">
+        <v>1</v>
+      </c>
+      <c r="D125" s="23">
+        <v>1</v>
+      </c>
+      <c r="E125" s="23"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="23">
         <v>109</v>
       </c>
-      <c r="H125" s="22" t="s">
+      <c r="H125" s="24" t="s">
         <v>219</v>
       </c>
       <c r="I125" s="5"/>
     </row>
     <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="2">
+      <c r="A126" s="23">
         <v>125</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="23">
         <v>19</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="23">
         <v>2</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="23">
         <v>2</v>
       </c>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2">
+      <c r="E126" s="23"/>
+      <c r="F126" s="23"/>
+      <c r="G126" s="23">
         <v>110</v>
       </c>
-      <c r="H126" s="22" t="s">
+      <c r="H126" s="24" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="2">
+      <c r="A127" s="23">
         <v>126</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="23">
         <v>19</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="23">
         <v>3</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="23">
         <v>3</v>
       </c>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2">
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23">
         <v>111</v>
       </c>
-      <c r="H127" s="22" t="s">
+      <c r="H127" s="24" t="s">
         <v>136</v>
       </c>
       <c r="I127" s="5"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="2">
+      <c r="A128" s="23">
         <v>127</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="23">
         <v>19</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="23">
         <v>4</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="23">
         <v>10</v>
       </c>
-      <c r="G128" s="2">
+      <c r="E128" s="23"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23">
         <v>112</v>
       </c>
-      <c r="H128" s="22" t="s">
+      <c r="H128" s="24" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="2">
+      <c r="A129" s="23">
         <v>128</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="23">
         <v>19</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="23">
         <v>11</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="23">
         <v>20</v>
       </c>
-      <c r="G129" s="2">
+      <c r="E129" s="23"/>
+      <c r="F129" s="23"/>
+      <c r="G129" s="23">
         <v>113</v>
       </c>
-      <c r="H129" s="22" t="s">
+      <c r="H129" s="24" t="s">
         <v>136</v>
       </c>
     </row>
@@ -11496,7 +11507,7 @@
       <c r="G207" s="34">
         <v>191</v>
       </c>
-      <c r="H207" s="37" t="s">
+      <c r="H207" s="36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11518,7 +11529,7 @@
       <c r="G208" s="34">
         <v>192</v>
       </c>
-      <c r="H208" s="37" t="s">
+      <c r="H208" s="36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11540,7 +11551,7 @@
       <c r="G209" s="34">
         <v>193</v>
       </c>
-      <c r="H209" s="37" t="s">
+      <c r="H209" s="36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11562,7 +11573,7 @@
       <c r="G210" s="34">
         <v>194</v>
       </c>
-      <c r="H210" s="37" t="s">
+      <c r="H210" s="36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11584,7 +11595,7 @@
       <c r="G211" s="34">
         <v>195</v>
       </c>
-      <c r="H211" s="37" t="s">
+      <c r="H211" s="36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11606,7 +11617,7 @@
       <c r="G212" s="34">
         <v>196</v>
       </c>
-      <c r="H212" s="37" t="s">
+      <c r="H212" s="36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11628,7 +11639,7 @@
       <c r="G213" s="34">
         <v>197</v>
       </c>
-      <c r="H213" s="37" t="s">
+      <c r="H213" s="36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11643,9 +11654,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G195"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D191" sqref="D191"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13423,583 +13434,583 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="23">
+    <row r="90" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="23">
+      <c r="B90" s="5">
         <v>85</v>
       </c>
-      <c r="C90" s="24" t="s">
+      <c r="C90" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D90" s="24" t="s">
+      <c r="D90" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E90" s="23">
+      <c r="E90" s="5">
         <v>100000</v>
       </c>
-      <c r="F90" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="23">
+      <c r="F90" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5">
         <v>90</v>
       </c>
-      <c r="B91" s="23">
+      <c r="B91" s="5">
         <v>86</v>
       </c>
-      <c r="C91" s="24" t="s">
+      <c r="C91" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D91" s="24" t="s">
+      <c r="D91" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E91" s="23">
+      <c r="E91" s="5">
         <v>30000</v>
       </c>
-      <c r="F91" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="23">
+      <c r="F91" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
         <v>91</v>
       </c>
-      <c r="B92" s="23">
+      <c r="B92" s="5">
         <v>87</v>
       </c>
-      <c r="C92" s="24" t="s">
+      <c r="C92" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="D92" s="24" t="s">
+      <c r="D92" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E92" s="23">
+      <c r="E92" s="5">
         <v>10000</v>
       </c>
-      <c r="F92" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="23">
+      <c r="F92" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
         <v>92</v>
       </c>
-      <c r="B93" s="23">
+      <c r="B93" s="5">
         <v>88</v>
       </c>
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D93" s="24" t="s">
+      <c r="D93" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E93" s="23">
+      <c r="E93" s="5">
         <v>3000</v>
       </c>
-      <c r="F93" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="23">
+      <c r="F93" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="23">
+      <c r="B94" s="5">
         <v>89</v>
       </c>
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="D94" s="24" t="s">
+      <c r="D94" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E94" s="23">
+      <c r="E94" s="5">
         <v>2000</v>
       </c>
-      <c r="F94" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="23">
+      <c r="F94" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5">
         <v>94</v>
       </c>
-      <c r="B95" s="23">
+      <c r="B95" s="5">
         <v>90</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="C95" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D95" s="24" t="s">
+      <c r="D95" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E95" s="23">
+      <c r="E95" s="5">
         <v>1000</v>
       </c>
-      <c r="F95" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="23">
+      <c r="F95" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5">
         <v>95</v>
       </c>
-      <c r="B96" s="23">
+      <c r="B96" s="5">
         <v>91</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D96" s="24" t="s">
+      <c r="D96" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E96" s="23">
+      <c r="E96" s="5">
         <v>500</v>
       </c>
-      <c r="F96" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="34">
+      <c r="F96" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5">
         <v>96</v>
       </c>
-      <c r="B97" s="34">
+      <c r="B97" s="5">
         <v>92</v>
       </c>
-      <c r="C97" s="35" t="s">
+      <c r="C97" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="D97" s="35" t="s">
+      <c r="D97" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E97" s="34">
+      <c r="E97" s="5">
         <v>50000</v>
       </c>
-      <c r="F97" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="34">
+      <c r="F97" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5">
         <v>97</v>
       </c>
-      <c r="B98" s="34">
+      <c r="B98" s="5">
         <v>93</v>
       </c>
-      <c r="C98" s="35" t="s">
+      <c r="C98" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="D98" s="35" t="s">
+      <c r="D98" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E98" s="34">
+      <c r="E98" s="5">
         <v>30000</v>
       </c>
-      <c r="F98" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="34">
+      <c r="F98" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5">
         <v>98</v>
       </c>
-      <c r="B99" s="34">
+      <c r="B99" s="5">
         <v>94</v>
       </c>
-      <c r="C99" s="35" t="s">
+      <c r="C99" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="D99" s="35" t="s">
+      <c r="D99" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E99" s="34">
+      <c r="E99" s="5">
         <v>10000</v>
       </c>
-      <c r="F99" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="34">
+      <c r="F99" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5">
         <v>99</v>
       </c>
-      <c r="B100" s="34">
+      <c r="B100" s="5">
         <v>95</v>
       </c>
-      <c r="C100" s="35" t="s">
+      <c r="C100" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D100" s="35" t="s">
+      <c r="D100" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E100" s="34">
+      <c r="E100" s="5">
         <v>5000</v>
       </c>
-      <c r="F100" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="34">
+      <c r="F100" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="5">
         <v>100</v>
       </c>
-      <c r="B101" s="34">
+      <c r="B101" s="5">
         <v>96</v>
       </c>
-      <c r="C101" s="35" t="s">
+      <c r="C101" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="D101" s="35" t="s">
+      <c r="D101" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E101" s="34">
+      <c r="E101" s="5">
         <v>2000</v>
       </c>
-      <c r="F101" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="31">
+      <c r="F101" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5">
         <v>101</v>
       </c>
-      <c r="B102" s="31">
+      <c r="B102" s="5">
         <v>97</v>
       </c>
-      <c r="C102" s="33" t="s">
+      <c r="C102" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="D102" s="33" t="s">
+      <c r="D102" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E102" s="31">
+      <c r="E102" s="5">
         <v>10000</v>
       </c>
-      <c r="F102" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="31">
+      <c r="F102" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="5">
         <v>102</v>
       </c>
-      <c r="B103" s="31">
+      <c r="B103" s="5">
         <v>98</v>
       </c>
-      <c r="C103" s="33" t="s">
+      <c r="C103" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D103" s="33" t="s">
+      <c r="D103" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="E103" s="5">
+        <v>9000</v>
+      </c>
+      <c r="F103" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="5">
+        <v>103</v>
+      </c>
+      <c r="B104" s="5">
+        <v>99</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D104" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E103" s="31">
-        <v>9000</v>
-      </c>
-      <c r="F103" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="31">
+      <c r="E104" s="5">
+        <v>8000</v>
+      </c>
+      <c r="F104" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="5">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5">
+        <v>100</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E105" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F105" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="5">
+        <v>105</v>
+      </c>
+      <c r="B106" s="5">
+        <v>101</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E106" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F106" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="5">
+        <v>106</v>
+      </c>
+      <c r="B107" s="5">
+        <v>102</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E107" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F107" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="5">
+        <v>107</v>
+      </c>
+      <c r="B108" s="5">
         <v>103</v>
       </c>
-      <c r="B104" s="31">
-        <v>99</v>
-      </c>
-      <c r="C104" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="D104" s="33" t="s">
+      <c r="C108" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D108" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E104" s="31">
-        <v>8000</v>
-      </c>
-      <c r="F104" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="31">
+      <c r="E108" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F108" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="5">
+        <v>108</v>
+      </c>
+      <c r="B109" s="5">
         <v>104</v>
       </c>
-      <c r="B105" s="31">
-        <v>100</v>
-      </c>
-      <c r="C105" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="D105" s="33" t="s">
+      <c r="C109" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D109" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E105" s="31">
-        <v>5000</v>
-      </c>
-      <c r="F105" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="31">
+      <c r="E109" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F109" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="5">
+        <v>109</v>
+      </c>
+      <c r="B110" s="5">
         <v>105</v>
       </c>
-      <c r="B106" s="31">
-        <v>101</v>
-      </c>
-      <c r="C106" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="D106" s="33" t="s">
+      <c r="C110" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D110" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E106" s="31">
+      <c r="E110" s="5">
         <v>3000</v>
       </c>
-      <c r="F106" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="39">
+      <c r="F110" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="5">
+        <v>110</v>
+      </c>
+      <c r="B111" s="5">
         <v>106</v>
       </c>
-      <c r="B107" s="39">
-        <v>102</v>
-      </c>
-      <c r="C107" s="41" t="s">
+      <c r="C111" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D111" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E111" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F111" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
+        <v>111</v>
+      </c>
+      <c r="B112" s="5">
+        <v>107</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D112" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E112" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F112" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="5">
+        <v>112</v>
+      </c>
+      <c r="B113" s="5">
+        <v>108</v>
+      </c>
+      <c r="C113" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D107" s="41" t="s">
+      <c r="D113" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E107" s="39">
+      <c r="E113" s="5">
+        <v>500</v>
+      </c>
+      <c r="F113" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="23">
+        <v>113</v>
+      </c>
+      <c r="B114" s="23">
+        <v>109</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="D114" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E114" s="23">
+        <v>500000</v>
+      </c>
+      <c r="F114" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="23">
+        <v>114</v>
+      </c>
+      <c r="B115" s="23">
+        <v>110</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E115" s="23">
+        <v>300000</v>
+      </c>
+      <c r="F115" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="23">
+        <v>115</v>
+      </c>
+      <c r="B116" s="23">
+        <v>111</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E116" s="23">
         <v>100000</v>
       </c>
-      <c r="F107" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="39">
-        <v>107</v>
-      </c>
-      <c r="B108" s="39">
-        <v>103</v>
-      </c>
-      <c r="C108" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="D108" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E108" s="39">
-        <v>30000</v>
-      </c>
-      <c r="F108" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="39">
-        <v>108</v>
-      </c>
-      <c r="B109" s="39">
-        <v>104</v>
-      </c>
-      <c r="C109" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="D109" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E109" s="39">
-        <v>10000</v>
-      </c>
-      <c r="F109" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="39">
-        <v>109</v>
-      </c>
-      <c r="B110" s="39">
-        <v>105</v>
-      </c>
-      <c r="C110" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="D110" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E110" s="39">
-        <v>3000</v>
-      </c>
-      <c r="F110" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="39">
-        <v>110</v>
-      </c>
-      <c r="B111" s="39">
-        <v>106</v>
-      </c>
-      <c r="C111" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="D111" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E111" s="39">
-        <v>2000</v>
-      </c>
-      <c r="F111" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="39">
-        <v>111</v>
-      </c>
-      <c r="B112" s="39">
-        <v>107</v>
-      </c>
-      <c r="C112" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="D112" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E112" s="39">
-        <v>1000</v>
-      </c>
-      <c r="F112" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="39">
+      <c r="F116" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="23">
+        <v>116</v>
+      </c>
+      <c r="B117" s="23">
         <v>112</v>
       </c>
-      <c r="B113" s="39">
-        <v>108</v>
-      </c>
-      <c r="C113" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="D113" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E113" s="39">
-        <v>500</v>
-      </c>
-      <c r="F113" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="2">
+      <c r="C117" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E117" s="23">
+        <v>50000</v>
+      </c>
+      <c r="F117" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="23">
+        <v>117</v>
+      </c>
+      <c r="B118" s="23">
         <v>113</v>
       </c>
-      <c r="B114" s="2">
-        <v>109</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="D114" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="E114" s="2">
-        <v>5</v>
-      </c>
-      <c r="F114" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="2">
-        <v>114</v>
-      </c>
-      <c r="B115" s="2">
-        <v>110</v>
-      </c>
-      <c r="C115" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D115" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="E115" s="2">
-        <v>3</v>
-      </c>
-      <c r="F115" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="2">
-        <v>115</v>
-      </c>
-      <c r="B116" s="2">
-        <v>111</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D116" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="E116" s="2">
-        <v>2</v>
-      </c>
-      <c r="F116" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="2">
-        <v>116</v>
-      </c>
-      <c r="B117" s="2">
-        <v>112</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="D117" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="E117" s="2">
-        <v>5</v>
-      </c>
-      <c r="F117" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="2">
-        <v>117</v>
-      </c>
-      <c r="B118" s="2">
-        <v>113</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="D118" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="E118" s="2">
-        <v>2</v>
-      </c>
-      <c r="F118" s="2">
+      <c r="C118" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E118" s="23">
+        <v>20000</v>
+      </c>
+      <c r="F118" s="23">
         <v>1</v>
       </c>
     </row>
@@ -14011,7 +14022,7 @@
         <v>114</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D119" s="20" t="s">
         <v>158</v>
@@ -14031,7 +14042,7 @@
         <v>115</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D120" s="20" t="s">
         <v>158</v>
@@ -14051,7 +14062,7 @@
         <v>116</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D121" s="20" t="s">
         <v>158</v>
@@ -14071,7 +14082,7 @@
         <v>117</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D122" s="20" t="s">
         <v>158</v>
@@ -14091,7 +14102,7 @@
         <v>118</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D123" s="20" t="s">
         <v>158</v>
@@ -14111,7 +14122,7 @@
         <v>119</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D124" s="20" t="s">
         <v>158</v>
@@ -14131,7 +14142,7 @@
         <v>120</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D125" s="20" t="s">
         <v>158</v>
@@ -14151,7 +14162,7 @@
         <v>121</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D126" s="20" t="s">
         <v>158</v>
@@ -14171,7 +14182,7 @@
         <v>122</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D127" s="20" t="s">
         <v>158</v>
@@ -14191,7 +14202,7 @@
         <v>123</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D128" s="20" t="s">
         <v>158</v>
@@ -14211,7 +14222,7 @@
         <v>124</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D129" s="20" t="s">
         <v>158</v>
@@ -14231,7 +14242,7 @@
         <v>125</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D130" s="20" t="s">
         <v>158</v>
@@ -14271,7 +14282,7 @@
         <v>127</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D132" s="20" t="s">
         <v>158</v>
@@ -14291,7 +14302,7 @@
         <v>128</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D133" s="20" t="s">
         <v>158</v>
@@ -14311,7 +14322,7 @@
         <v>129</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D134" s="20" t="s">
         <v>158</v>
@@ -14331,7 +14342,7 @@
         <v>130</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D135" s="20" t="s">
         <v>158</v>
@@ -14351,7 +14362,7 @@
         <v>131</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D136" s="20" t="s">
         <v>158</v>
@@ -14371,7 +14382,7 @@
         <v>132</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D137" s="20" t="s">
         <v>158</v>
@@ -14411,7 +14422,7 @@
         <v>134</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D139" s="20" t="s">
         <v>158</v>
@@ -14431,7 +14442,7 @@
         <v>135</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D140" s="20" t="s">
         <v>158</v>
@@ -14451,7 +14462,7 @@
         <v>136</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D141" s="20" t="s">
         <v>158</v>
@@ -14471,7 +14482,7 @@
         <v>137</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D142" s="20" t="s">
         <v>158</v>
@@ -14491,7 +14502,7 @@
         <v>138</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D143" s="20" t="s">
         <v>158</v>
@@ -14511,7 +14522,7 @@
         <v>139</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D144" s="20" t="s">
         <v>158</v>
@@ -14551,7 +14562,7 @@
         <v>141</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D146" s="20" t="s">
         <v>158</v>
@@ -14571,7 +14582,7 @@
         <v>142</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D147" s="20" t="s">
         <v>158</v>
@@ -14591,7 +14602,7 @@
         <v>143</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D148" s="20" t="s">
         <v>158</v>
@@ -14611,7 +14622,7 @@
         <v>144</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D149" s="20" t="s">
         <v>158</v>
@@ -14631,7 +14642,7 @@
         <v>145</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D150" s="20" t="s">
         <v>158</v>
@@ -14651,7 +14662,7 @@
         <v>146</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D151" s="20" t="s">
         <v>158</v>
@@ -14691,7 +14702,7 @@
         <v>148</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D153" s="20" t="s">
         <v>158</v>
@@ -14711,7 +14722,7 @@
         <v>149</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D154" s="20" t="s">
         <v>158</v>
@@ -14731,7 +14742,7 @@
         <v>150</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D155" s="20" t="s">
         <v>158</v>
@@ -14751,7 +14762,7 @@
         <v>151</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D156" s="20" t="s">
         <v>158</v>
@@ -14771,7 +14782,7 @@
         <v>152</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D157" s="20" t="s">
         <v>158</v>
@@ -14791,7 +14802,7 @@
         <v>153</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D158" s="20" t="s">
         <v>158</v>
@@ -14831,7 +14842,7 @@
         <v>155</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D160" s="20" t="s">
         <v>158</v>
@@ -14851,7 +14862,7 @@
         <v>156</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D161" s="20" t="s">
         <v>158</v>
@@ -14871,7 +14882,7 @@
         <v>157</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D162" s="20" t="s">
         <v>158</v>
@@ -14891,7 +14902,7 @@
         <v>158</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D163" s="20" t="s">
         <v>158</v>
@@ -14911,7 +14922,7 @@
         <v>159</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D164" s="20" t="s">
         <v>158</v>
@@ -14931,7 +14942,7 @@
         <v>160</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D165" s="20" t="s">
         <v>158</v>
@@ -14971,7 +14982,7 @@
         <v>162</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D167" s="20" t="s">
         <v>158</v>
@@ -14991,7 +15002,7 @@
         <v>163</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D168" s="20" t="s">
         <v>158</v>
@@ -15011,7 +15022,7 @@
         <v>164</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D169" s="20" t="s">
         <v>158</v>
@@ -15031,7 +15042,7 @@
         <v>165</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D170" s="20" t="s">
         <v>158</v>
@@ -15051,7 +15062,7 @@
         <v>166</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D171" s="20" t="s">
         <v>158</v>
@@ -15071,7 +15082,7 @@
         <v>167</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D172" s="20" t="s">
         <v>158</v>
@@ -15111,7 +15122,7 @@
         <v>169</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D174" s="20" t="s">
         <v>158</v>
@@ -15131,7 +15142,7 @@
         <v>170</v>
       </c>
       <c r="C175" s="33" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D175" s="33" t="s">
         <v>158</v>
@@ -15151,7 +15162,7 @@
         <v>171</v>
       </c>
       <c r="C176" s="33" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D176" s="33" t="s">
         <v>158</v>
@@ -15171,7 +15182,7 @@
         <v>172</v>
       </c>
       <c r="C177" s="33" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D177" s="33" t="s">
         <v>158</v>
@@ -15191,7 +15202,7 @@
         <v>173</v>
       </c>
       <c r="C178" s="33" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D178" s="33" t="s">
         <v>158</v>
@@ -15211,7 +15222,7 @@
         <v>174</v>
       </c>
       <c r="C179" s="33" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D179" s="33" t="s">
         <v>158</v>
@@ -15251,7 +15262,7 @@
         <v>176</v>
       </c>
       <c r="C181" s="33" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D181" s="33" t="s">
         <v>158</v>
@@ -15271,7 +15282,7 @@
         <v>177</v>
       </c>
       <c r="C182" s="33" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D182" s="33" t="s">
         <v>158</v>
@@ -15291,7 +15302,7 @@
         <v>178</v>
       </c>
       <c r="C183" s="33" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D183" s="33" t="s">
         <v>158</v>
@@ -15311,7 +15322,7 @@
         <v>179</v>
       </c>
       <c r="C184" s="33" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D184" s="33" t="s">
         <v>158</v>
@@ -15331,7 +15342,7 @@
         <v>180</v>
       </c>
       <c r="C185" s="33" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D185" s="33" t="s">
         <v>158</v>
@@ -15371,7 +15382,7 @@
         <v>182</v>
       </c>
       <c r="C187" s="33" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D187" s="33" t="s">
         <v>158</v>
@@ -15391,7 +15402,7 @@
         <v>183</v>
       </c>
       <c r="C188" s="33" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D188" s="33" t="s">
         <v>158</v>
@@ -15411,7 +15422,7 @@
         <v>184</v>
       </c>
       <c r="C189" s="24" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D189" s="24" t="s">
         <v>158</v>
@@ -15431,7 +15442,7 @@
         <v>185</v>
       </c>
       <c r="C190" s="24" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D190" s="24" t="s">
         <v>158</v>
@@ -15451,7 +15462,7 @@
         <v>186</v>
       </c>
       <c r="C191" s="24" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D191" s="24" t="s">
         <v>158</v>
@@ -15471,7 +15482,7 @@
         <v>187</v>
       </c>
       <c r="C192" s="24" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D192" s="24" t="s">
         <v>158</v>
@@ -15491,7 +15502,7 @@
         <v>188</v>
       </c>
       <c r="C193" s="24" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D193" s="24" t="s">
         <v>158</v>
@@ -15531,7 +15542,7 @@
         <v>190</v>
       </c>
       <c r="C195" s="24" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D195" s="24" t="s">
         <v>158</v>
